--- a/Passageiros pagos/cwb_nac.xlsx
+++ b/Passageiros pagos/cwb_nac.xlsx
@@ -1,32 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D50DB6-5172-4561-873C-E6B0C2A1B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>Passageiros</t>
   </si>
+  <si>
+    <t>Passageiros_freq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +64,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -51,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,21 +103,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +219,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +271,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,22 +464,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -401,8 +497,11 @@
       <c r="C2">
         <v>2981167</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -412,8 +511,12 @@
       <c r="C3">
         <v>3198439</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="2">
+        <f>C3/C2 -1</f>
+        <v>7.2881525925921009E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -423,8 +526,12 @@
       <c r="C4">
         <v>3860727</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
+        <v>0.20706600938770436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -434,8 +541,12 @@
       <c r="C5">
         <v>3317577</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.14068593816656816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -445,8 +556,12 @@
       <c r="C6">
         <v>3341621</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2474580092640739E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -456,8 +571,12 @@
       <c r="C7">
         <v>4105119</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22848132687698586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -467,8 +586,12 @@
       <c r="C8">
         <v>4229466</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0290717516349819E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -478,8 +601,12 @@
       <c r="C9">
         <v>4653920</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10035640433094861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -489,8 +616,12 @@
       <c r="C10">
         <v>4927837</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8857264413655574E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -500,8 +631,12 @@
       <c r="C11">
         <v>5782028</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17333994610617198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -511,8 +646,12 @@
       <c r="C12">
         <v>6828663</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18101520781289882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -522,8 +661,12 @@
       <c r="C13">
         <v>7968244</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16688200896720184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -533,8 +676,12 @@
       <c r="C14">
         <v>7692451</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.4611515410421623E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -544,8 +691,12 @@
       <c r="C15">
         <v>7376152</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.1118103969723041E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -555,8 +706,12 @@
       <c r="C16">
         <v>7805243</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8172743728708509E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -566,8 +721,12 @@
       <c r="C17">
         <v>7511752</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.7601776139448817E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -577,8 +736,12 @@
       <c r="C18">
         <v>6295255</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.16194584166250425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -588,8 +751,12 @@
       <c r="C19">
         <v>6580928</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5379099019817293E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -599,8 +766,12 @@
       <c r="C20">
         <v>6200060</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.7874512530755595E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -610,8 +781,12 @@
       <c r="C21">
         <v>6364930</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6591678145050146E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -620,6 +795,10 @@
       </c>
       <c r="C22">
         <v>2481817</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22/C21 -1</f>
+        <v>-0.61007945099160554</v>
       </c>
     </row>
   </sheetData>

--- a/Passageiros pagos/cwb_nac.xlsx
+++ b/Passageiros pagos/cwb_nac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D50DB6-5172-4561-873C-E6B0C2A1B43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE790F1-A3E8-459A-BCAF-AE93B8CADC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>2981167</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>7.2881525925921009E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,8 +512,7 @@
         <v>3198439</v>
       </c>
       <c r="D3" s="2">
-        <f>C3/C2 -1</f>
-        <v>7.2881525925921009E-2</v>
+        <v>0.20706600938770436</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -527,8 +526,7 @@
         <v>3860727</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
-        <v>0.20706600938770436</v>
+        <v>-0.14068593816656816</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,8 +540,7 @@
         <v>3317577</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.14068593816656816</v>
+        <v>7.2474580092640739E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -557,8 +554,7 @@
         <v>3341621</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2474580092640739E-3</v>
+        <v>0.22848132687698586</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,8 +568,7 @@
         <v>4105119</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22848132687698586</v>
+        <v>3.0290717516349819E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,8 +582,7 @@
         <v>4229466</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0290717516349819E-2</v>
+        <v>0.10035640433094861</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -602,8 +596,7 @@
         <v>4653920</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10035640433094861</v>
+        <v>5.8857264413655574E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,8 +610,7 @@
         <v>4927837</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8857264413655574E-2</v>
+        <v>0.17333994610617198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -632,8 +624,7 @@
         <v>5782028</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17333994610617198</v>
+        <v>0.18101520781289882</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -647,8 +638,7 @@
         <v>6828663</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18101520781289882</v>
+        <v>0.16688200896720184</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,8 +652,7 @@
         <v>7968244</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16688200896720184</v>
+        <v>-3.4611515410421623E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -677,8 +666,7 @@
         <v>7692451</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.4611515410421623E-2</v>
+        <v>-4.1118103969723041E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,8 +680,7 @@
         <v>7376152</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.1118103969723041E-2</v>
+        <v>5.8172743728708509E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,8 +694,7 @@
         <v>7805243</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8172743728708509E-2</v>
+        <v>-3.7601776139448817E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,8 +708,7 @@
         <v>7511752</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.7601776139448817E-2</v>
+        <v>-0.16194584166250425</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -737,8 +722,7 @@
         <v>6295255</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.16194584166250425</v>
+        <v>4.5379099019817293E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -752,8 +736,7 @@
         <v>6580928</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5379099019817293E-2</v>
+        <v>-5.7874512530755595E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -767,8 +750,7 @@
         <v>6200060</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.7874512530755595E-2</v>
+        <v>2.6591678145050146E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -782,8 +764,7 @@
         <v>6364930</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6591678145050146E-2</v>
+        <v>-0.61007945099160554</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -796,10 +777,7 @@
       <c r="C22">
         <v>2481817</v>
       </c>
-      <c r="D22" s="2">
-        <f>C22/C21 -1</f>
-        <v>-0.61007945099160554</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/cwb_nac.xlsx
+++ b/Passageiros pagos/cwb_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE790F1-A3E8-459A-BCAF-AE93B8CADC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E199E2E-AD6B-4601-A55F-832024212177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,11 +469,12 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,7 +496,7 @@
       <c r="B2">
         <v>2000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2981167</v>
       </c>
       <c r="D2" s="2">

--- a/Passageiros pagos/cwb_nac.xlsx
+++ b/Passageiros pagos/cwb_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E199E2E-AD6B-4601-A55F-832024212177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85610C9C-37B9-45D8-95AC-5C4247FA7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -127,6 +127,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F17" sqref="F17:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +703,7 @@
         <v>-3.7601776139448817E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -712,8 +716,12 @@
       <c r="D17" s="2">
         <v>-0.16194584166250425</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -726,8 +734,12 @@
       <c r="D18" s="2">
         <v>4.5379099019817293E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -740,8 +752,12 @@
       <c r="D19" s="2">
         <v>-5.7874512530755595E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -754,8 +770,12 @@
       <c r="D20" s="2">
         <v>2.6591678145050146E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -768,8 +788,12 @@
       <c r="D21" s="2">
         <v>-0.61007945099160554</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>

--- a/Passageiros pagos/cwb_nac.xlsx
+++ b/Passageiros pagos/cwb_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85610C9C-37B9-45D8-95AC-5C4247FA7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7339C6-99BB-4BAF-A6FD-42C818415B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ano</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Passageiros_freq</t>
+  </si>
+  <si>
+    <t>numero_de_passageiros</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -131,6 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,19 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:I21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,215 +497,277 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
-      <c r="C2" s="4">
-        <v>2981167</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>7.2881525925921009E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4">
+        <v>2981167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
-      <c r="C3">
-        <v>3198439</v>
+      <c r="C3" s="4">
+        <f>E3/E2 -1</f>
+        <v>7.2881525925921009E-2</v>
       </c>
       <c r="D3" s="2">
         <v>0.20706600938770436</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>3198439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
-      <c r="C4">
-        <v>3860727</v>
+      <c r="C4" s="4">
+        <f>E4/E3 -1</f>
+        <v>0.20706600938770436</v>
       </c>
       <c r="D4" s="2">
         <v>-0.14068593816656816</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3860727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
-      <c r="C5">
-        <v>3317577</v>
+      <c r="C5" s="4">
+        <f>E5/E4 -1</f>
+        <v>-0.14068593816656816</v>
       </c>
       <c r="D5" s="2">
         <v>7.2474580092640739E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3317577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C6">
-        <v>3341621</v>
+      <c r="C6" s="4">
+        <f>E6/E5 -1</f>
+        <v>7.2474580092640739E-3</v>
       </c>
       <c r="D6" s="2">
         <v>0.22848132687698586</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>3341621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
-      <c r="C7">
-        <v>4105119</v>
+      <c r="C7" s="4">
+        <f>E7/E6 -1</f>
+        <v>0.22848132687698586</v>
       </c>
       <c r="D7" s="2">
         <v>3.0290717516349819E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>4105119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C8">
-        <v>4229466</v>
+      <c r="C8" s="4">
+        <f>E8/E7 -1</f>
+        <v>3.0290717516349819E-2</v>
       </c>
       <c r="D8" s="2">
         <v>0.10035640433094861</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>4229466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
-      <c r="C9">
-        <v>4653920</v>
+      <c r="C9" s="4">
+        <f>E9/E8 -1</f>
+        <v>0.10035640433094861</v>
       </c>
       <c r="D9" s="2">
         <v>5.8857264413655574E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>4653920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
-      <c r="C10">
-        <v>4927837</v>
+      <c r="C10" s="4">
+        <f>E10/E9 -1</f>
+        <v>5.8857264413655574E-2</v>
       </c>
       <c r="D10" s="2">
         <v>0.17333994610617198</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>4927837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
-      <c r="C11">
-        <v>5782028</v>
+      <c r="C11" s="4">
+        <f>E11/E10 -1</f>
+        <v>0.17333994610617198</v>
       </c>
       <c r="D11" s="2">
         <v>0.18101520781289882</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>5782028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
-      <c r="C12">
-        <v>6828663</v>
+      <c r="C12" s="4">
+        <f>E12/E11 -1</f>
+        <v>0.18101520781289882</v>
       </c>
       <c r="D12" s="2">
         <v>0.16688200896720184</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>6828663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13">
-        <v>7968244</v>
+      <c r="C13" s="4">
+        <f>E13/E12 -1</f>
+        <v>0.16688200896720184</v>
       </c>
       <c r="D13" s="2">
         <v>-3.4611515410421623E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>7968244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14">
-        <v>7692451</v>
+      <c r="C14" s="4">
+        <f>E14/E13 -1</f>
+        <v>-3.4611515410421623E-2</v>
       </c>
       <c r="D14" s="2">
         <v>-4.1118103969723041E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>7692451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15">
-        <v>7376152</v>
+      <c r="C15" s="4">
+        <f>E15/E14 -1</f>
+        <v>-4.1118103969723041E-2</v>
       </c>
       <c r="D15" s="2">
         <v>5.8172743728708509E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>7376152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C16">
-        <v>7805243</v>
+      <c r="C16" s="4">
+        <f>E16/E15 -1</f>
+        <v>5.8172743728708509E-2</v>
       </c>
       <c r="D16" s="2">
         <v>-3.7601776139448817E-2</v>
+      </c>
+      <c r="E16">
+        <v>7805243</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -710,13 +777,16 @@
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17">
-        <v>7511752</v>
+      <c r="C17" s="4">
+        <f>E17/E16 -1</f>
+        <v>-3.7601776139448817E-2</v>
       </c>
       <c r="D17" s="2">
         <v>-0.16194584166250425</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="E17">
+        <v>7511752</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -728,13 +798,16 @@
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>6295255</v>
+      <c r="C18" s="4">
+        <f>E18/E17 -1</f>
+        <v>-0.16194584166250425</v>
       </c>
       <c r="D18" s="2">
         <v>4.5379099019817293E-2</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="E18">
+        <v>6295255</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -746,13 +819,16 @@
       <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C19">
-        <v>6580928</v>
+      <c r="C19" s="4">
+        <f>E19/E18 -1</f>
+        <v>4.5379099019817293E-2</v>
       </c>
       <c r="D19" s="2">
         <v>-5.7874512530755595E-2</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="E19">
+        <v>6580928</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -764,13 +840,16 @@
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20">
-        <v>6200060</v>
+      <c r="C20" s="4">
+        <f>E20/E19 -1</f>
+        <v>-5.7874512530755595E-2</v>
       </c>
       <c r="D20" s="2">
         <v>2.6591678145050146E-2</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="E20">
+        <v>6200060</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -782,13 +861,16 @@
       <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21">
-        <v>6364930</v>
+      <c r="C21" s="4">
+        <f>E21/E20 -1</f>
+        <v>2.6591678145050146E-2</v>
       </c>
       <c r="D21" s="2">
         <v>-0.61007945099160554</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="E21">
+        <v>6364930</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -800,12 +882,17 @@
       <c r="B22">
         <v>2020</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22">
         <v>2481817</v>
       </c>
-      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Passageiros pagos/cwb_nac.xlsx
+++ b/Passageiros pagos/cwb_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7339C6-99BB-4BAF-A6FD-42C818415B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA0B41D-42AB-48A2-AEB4-C412762FF89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,14 +130,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +478,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,21 +488,21 @@
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -511,264 +512,293 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>7.2881525925921009E-2</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="7">
+        <f>C3</f>
+        <v>4.7188668929183386E-3</v>
+      </c>
+      <c r="E2" s="3">
         <v>2981167</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
-      <c r="C3" s="4">
-        <f>E3/E2 -1</f>
-        <v>7.2881525925921009E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.20706600938770436</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="6">
+        <f>(LN(E3)/LN(E2)) - 1</f>
+        <v>4.7188668929183386E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D22" si="0">C4</f>
+        <v>1.2564457891080627E-2</v>
+      </c>
+      <c r="E3" s="3">
         <v>3198439</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
-      <c r="C4" s="4">
-        <f>E4/E3 -1</f>
-        <v>0.20706600938770436</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-0.14068593816656816</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C22" si="1">(LN(E4)/LN(E3)) - 1</f>
+        <v>1.2564457891080627E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>-9.9971746594671451E-3</v>
+      </c>
+      <c r="E4" s="3">
         <v>3860727</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
-      <c r="C5" s="4">
-        <f>E5/E4 -1</f>
-        <v>-0.14068593816656816</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.2474580092640739E-3</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.9971746594671451E-3</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8094864544534488E-4</v>
+      </c>
+      <c r="E5" s="3">
         <v>3317577</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C6" s="4">
-        <f>E6/E5 -1</f>
-        <v>7.2474580092640739E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.22848132687698586</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8094864544534488E-4</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3698520222201527E-2</v>
+      </c>
+      <c r="E6" s="3">
         <v>3341621</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
-      <c r="C7" s="4">
-        <f>E7/E6 -1</f>
-        <v>0.22848132687698586</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.0290717516349819E-2</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3698520222201527E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9596474635663608E-3</v>
+      </c>
+      <c r="E7" s="3">
         <v>4105119</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C8" s="4">
-        <f>E8/E7 -1</f>
-        <v>3.0290717516349819E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.10035640433094861</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9596474635663608E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6.2679724938921044E-3</v>
+      </c>
+      <c r="E8" s="3">
         <v>4229466</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
-      <c r="C9" s="4">
-        <f>E9/E8 -1</f>
-        <v>0.10035640433094861</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5.8857264413655574E-2</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>6.2679724938921044E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7249692607759233E-3</v>
+      </c>
+      <c r="E9" s="3">
         <v>4653920</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
-      <c r="C10" s="4">
-        <f>E10/E9 -1</f>
-        <v>5.8857264413655574E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.17333994610617198</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7249692607759233E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.037313929185002E-2</v>
+      </c>
+      <c r="E10" s="3">
         <v>4927837</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
-      <c r="C11" s="4">
-        <f>E11/E10 -1</f>
-        <v>0.17333994610617198</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.18101520781289882</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.037313929185002E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0685393840419444E-2</v>
+      </c>
+      <c r="E11" s="3">
         <v>5782028</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
-      <c r="C12" s="4">
-        <f>E12/E11 -1</f>
-        <v>0.18101520781289882</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.16688200896720184</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0685393840419444E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>9.8073824667437304E-3</v>
+      </c>
+      <c r="E12" s="3">
         <v>6828663</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13" s="4">
-        <f>E13/E12 -1</f>
-        <v>0.16688200896720184</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-3.4611515410421623E-2</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>9.8073824667437304E-3</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.2166471607172333E-3</v>
+      </c>
+      <c r="E13" s="3">
         <v>7968244</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14" s="4">
-        <f>E14/E13 -1</f>
-        <v>-3.4611515410421623E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-4.1118103969723041E-2</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.2166471607172333E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.6480844420840866E-3</v>
+      </c>
+      <c r="E14" s="3">
         <v>7692451</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15" s="4">
-        <f>E15/E14 -1</f>
-        <v>-4.1118103969723041E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5.8172743728708509E-2</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.6480844420840866E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5755939431090233E-3</v>
+      </c>
+      <c r="E15" s="3">
         <v>7376152</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C16" s="4">
-        <f>E16/E15 -1</f>
-        <v>5.8172743728708509E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-3.7601776139448817E-2</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5755939431090233E-3</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.4150107289875322E-3</v>
+      </c>
+      <c r="E16" s="3">
         <v>7805243</v>
       </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -777,19 +807,20 @@
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17" s="4">
-        <f>E17/E16 -1</f>
-        <v>-3.7601776139448817E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-0.16194584166250425</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.4150107289875322E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.1159220797028135E-2</v>
+      </c>
+      <c r="E17" s="3">
         <v>7511752</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -798,19 +829,20 @@
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18" s="4">
-        <f>E18/E17 -1</f>
-        <v>-0.16194584166250425</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4.5379099019817293E-2</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.1159220797028135E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8347955468852604E-3</v>
+      </c>
+      <c r="E18" s="3">
         <v>6295255</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -819,19 +851,20 @@
       <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C19" s="4">
-        <f>E19/E18 -1</f>
-        <v>4.5379099019817293E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-5.7874512530755595E-2</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8347955468852604E-3</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>-3.7973242371271976E-3</v>
+      </c>
+      <c r="E19" s="3">
         <v>6580928</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -840,19 +873,20 @@
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20" s="4">
-        <f>E20/E19 -1</f>
-        <v>-5.7874512530755595E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2.6591678145050146E-2</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.7973242371271976E-3</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6780145916870381E-3</v>
+      </c>
+      <c r="E20" s="3">
         <v>6200060</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -861,19 +895,20 @@
       <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21" s="4">
-        <f>E21/E20 -1</f>
-        <v>2.6591678145050146E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-0.61007945099160554</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6780145916870381E-3</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-6.0117031587117564E-2</v>
+      </c>
+      <c r="E21" s="3">
         <v>6364930</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -882,14 +917,21 @@
       <c r="B22">
         <v>2020</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22">
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
+        <v>-6.0117031587117564E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>2481817</v>
       </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/cwb_nac.xlsx
+++ b/Passageiros pagos/cwb_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA0B41D-42AB-48A2-AEB4-C412762FF89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD950D-A6ED-4C04-A158-057CFC306D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Passageiros</t>
+    <t>numero_de_passageiros</t>
   </si>
   <si>
-    <t>Passageiros_freq</t>
+    <t>Passageiros_frequencia</t>
   </si>
   <si>
-    <t>numero_de_passageiros</t>
+    <t>Passageiros_freq_defasagem</t>
   </si>
 </sst>
 </file>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,13 +478,13 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
